--- a/medicine/Premiers secours et secourisme/Classe_Spassatel_Petr_Grouzinski/Classe_Spassatel_Petr_Grouzinski.xlsx
+++ b/medicine/Premiers secours et secourisme/Classe_Spassatel_Petr_Grouzinski/Classe_Spassatel_Petr_Grouzinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Spassatel Petr Grouzinski est le nom d'une classe de navire de sauvetage, remorqueur brise-glace de le service de sauvetage maritime de Rosmorrechflot du ministère russe des Transports (ru)[1],[2].
+La Spassatel Petr Grouzinski est le nom d'une classe de navire de sauvetage, remorqueur brise-glace de le service de sauvetage maritime de Rosmorrechflot du ministère russe des Transports (ru),.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les navires de la classe MPSV06 sont une série de trois navires de sauvetage brise-glace du groupe Russian Multi-Purpose Salvage Vessels (en), dont l'un est en construction en Russie et deux qui ont été commandés au constructeur naval allemand Nordic Yards Wismar.
-Le premier navire de la classe, provisoirement nommé Spassatel Petr Grouzinski, aurait été déposé au chantier naval de l'Amour à Komsomolsk-sur-l'Amour, en Russie, déjà en 2010, mais la construction a ensuite été suspendue. En décembre 2018, il a été signalé que la United Shipbuilding Corporation achèverait le troisième navire inachevé qui aurait une disponibilité technique d'environ 40 %. En février 2020, le chantier naval de l'Amour aurait été « en avance sur le calendrier ». Le navire, désormais nommé Kertchenski Proliv, a été lancé le 30 octobre 2020[3].
+Le premier navire de la classe, provisoirement nommé Spassatel Petr Grouzinski, aurait été déposé au chantier naval de l'Amour à Komsomolsk-sur-l'Amour, en Russie, déjà en 2010, mais la construction a ensuite été suspendue. En décembre 2018, il a été signalé que la United Shipbuilding Corporation achèverait le troisième navire inachevé qui aurait une disponibilité technique d'environ 40 %. En février 2020, le chantier naval de l'Amour aurait été « en avance sur le calendrier ». Le navire, désormais nommé Kertchenski Proliv, a été lancé le 30 octobre 2020.
 Les deuxième et troisième navires, Beringov Proliv et Mourman, ont été déposés en novembre 2013 à Nordic Yards et mis à l'eau en septembre 2014. Les deux navires ont été livrés en décembre 2015.
 La classe de brise-glace, attribuée par le registre maritime russe de la navigation, est « Icebreaker6 ». Ils auront deux grandes grues, pour le sauvetage, et une plate-forme d'atterrissage pour les hélicoptères. Ils seront capables de faire fonctionner des véhicules sous-marins télécommandés et disposeront d'installations de décompression suffisantes pour soutenir une équipe de plongeurs profonds.
 </t>
@@ -546,9 +560,11 @@
           <t>Liste de navires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe compte 3 navires[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe compte 3 navires.
 </t>
         </is>
       </c>
